--- a/Evaluation result/3 times Crash.xlsx
+++ b/Evaluation result/3 times Crash.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\drindroid-github\DinoDroid\Evaluation result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\android-rf\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54ED3F0-3CAE-42CB-A763-7D98CA5C8FF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B938A-3E37-4C9E-BAC4-E06754B8AEA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crash1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="73">
   <si>
     <t>DinDroid</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>crash-Intent</t>
+  </si>
+  <si>
+    <t>Q-test</t>
   </si>
 </sst>
 </file>
@@ -569,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66:P66"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66:M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,7 +583,7 @@
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -588,15 +591,18 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
       <c r="J1" t="s">
@@ -606,19 +612,22 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
       <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -626,15 +635,18 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
       <c r="J2" t="s">
@@ -644,19 +656,22 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -667,12 +682,15 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
@@ -685,16 +703,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -708,9 +729,12 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
@@ -720,19 +744,22 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -749,6 +776,9 @@
         <v>0</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
@@ -767,10 +797,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -789,6 +822,9 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
@@ -807,8 +843,11 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -819,12 +858,15 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
@@ -837,16 +879,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -857,12 +902,15 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
       <c r="J8" t="s">
@@ -875,16 +923,19 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -903,6 +954,9 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="J9" t="s">
         <v>10</v>
       </c>
@@ -913,16 +967,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -941,6 +998,9 @@
       <c r="G10">
         <v>0</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="J10" t="s">
         <v>11</v>
       </c>
@@ -951,16 +1011,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -979,6 +1042,9 @@
       <c r="G11">
         <v>0</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
@@ -989,16 +1055,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1009,12 +1078,15 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
@@ -1027,16 +1099,19 @@
         <v>0</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>3</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1055,6 +1130,9 @@
       <c r="G13">
         <v>0</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="J13" t="s">
         <v>14</v>
       </c>
@@ -1065,16 +1143,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1093,6 +1174,9 @@
       <c r="G14">
         <v>0</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="J14" t="s">
         <v>15</v>
       </c>
@@ -1111,8 +1195,11 @@
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1131,6 +1218,9 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="J15" t="s">
         <v>16</v>
       </c>
@@ -1141,16 +1231,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1169,6 +1262,9 @@
       <c r="G16">
         <v>0</v>
       </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="J16" t="s">
         <v>17</v>
       </c>
@@ -1179,16 +1275,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1196,15 +1295,18 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
@@ -1214,19 +1316,22 @@
         <v>1</v>
       </c>
       <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>3</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1234,15 +1339,18 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
@@ -1252,19 +1360,22 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1283,6 +1394,9 @@
       <c r="G19">
         <v>0</v>
       </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="J19" t="s">
         <v>20</v>
       </c>
@@ -1301,8 +1415,11 @@
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1321,6 +1438,9 @@
       <c r="G20">
         <v>0</v>
       </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="J20" t="s">
         <v>21</v>
       </c>
@@ -1339,8 +1459,11 @@
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1351,12 +1474,15 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
@@ -1369,16 +1495,19 @@
         <v>1</v>
       </c>
       <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
         <v>3</v>
       </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
       <c r="P21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1386,15 +1515,18 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>4</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>4</v>
       </c>
       <c r="J22" t="s">
@@ -1404,19 +1536,22 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>5</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
       <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1427,12 +1562,15 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
@@ -1445,16 +1583,19 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1473,6 +1614,9 @@
       <c r="G24">
         <v>0</v>
       </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
       <c r="J24" t="s">
         <v>25</v>
       </c>
@@ -1491,8 +1635,11 @@
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1509,6 +1656,9 @@
         <v>1</v>
       </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
@@ -1521,16 +1671,19 @@
         <v>1</v>
       </c>
       <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
         <v>3</v>
       </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
       <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1549,6 +1702,9 @@
       <c r="G26">
         <v>0</v>
       </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
       <c r="J26" t="s">
         <v>27</v>
       </c>
@@ -1567,8 +1723,11 @@
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1587,6 +1746,9 @@
       <c r="G27">
         <v>0</v>
       </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
       <c r="J27" t="s">
         <v>28</v>
       </c>
@@ -1597,16 +1759,19 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1625,6 +1790,9 @@
       <c r="G28">
         <v>0</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
       <c r="J28" t="s">
         <v>29</v>
       </c>
@@ -1643,8 +1811,11 @@
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1652,15 +1823,18 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
@@ -1670,10 +1844,10 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -1681,8 +1855,11 @@
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1693,12 +1870,15 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
@@ -1711,16 +1891,19 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1728,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1737,6 +1920,9 @@
         <v>0</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
@@ -1746,19 +1932,22 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1775,6 +1964,9 @@
         <v>0</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
@@ -1793,10 +1985,13 @@
         <v>0</v>
       </c>
       <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1807,12 +2002,15 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
@@ -1828,13 +2026,16 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1853,6 +2054,9 @@
       <c r="G34">
         <v>0</v>
       </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
       <c r="J34" t="s">
         <v>35</v>
       </c>
@@ -1871,8 +2075,11 @@
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1891,6 +2098,9 @@
       <c r="G35">
         <v>0</v>
       </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
       <c r="J35" t="s">
         <v>36</v>
       </c>
@@ -1909,8 +2119,11 @@
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1918,15 +2131,18 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
         <v>2</v>
       </c>
       <c r="J36" t="s">
@@ -1936,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1945,10 +2161,13 @@
         <v>1</v>
       </c>
       <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1967,6 +2186,9 @@
       <c r="G37">
         <v>1</v>
       </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
       <c r="J37" t="s">
         <v>38</v>
       </c>
@@ -1977,16 +2199,19 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1994,15 +2219,18 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
@@ -2012,19 +2240,22 @@
         <v>0</v>
       </c>
       <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
         <v>3</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>4</v>
       </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
       <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2038,9 +2269,12 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
@@ -2053,16 +2287,19 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2076,9 +2313,12 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
@@ -2094,13 +2334,16 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2108,15 +2351,18 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
@@ -2126,19 +2372,22 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>1</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2146,15 +2395,18 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
@@ -2164,19 +2416,22 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42">
         <v>1</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2195,6 +2450,9 @@
       <c r="G43">
         <v>0</v>
       </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
       <c r="J43" t="s">
         <v>44</v>
       </c>
@@ -2205,16 +2463,19 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2225,12 +2486,15 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
@@ -2243,16 +2507,19 @@
         <v>0</v>
       </c>
       <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
         <v>3</v>
       </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
       <c r="P44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2269,6 +2536,9 @@
         <v>0</v>
       </c>
       <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
@@ -2287,10 +2557,13 @@
         <v>0</v>
       </c>
       <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2309,6 +2582,9 @@
       <c r="G46">
         <v>0</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
       <c r="J46" t="s">
         <v>47</v>
       </c>
@@ -2327,8 +2603,11 @@
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2345,6 +2624,9 @@
         <v>0</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
@@ -2363,10 +2645,13 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2385,6 +2670,9 @@
       <c r="G48">
         <v>0</v>
       </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
       <c r="J48" t="s">
         <v>49</v>
       </c>
@@ -2401,10 +2689,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2415,12 +2706,15 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
@@ -2433,16 +2727,19 @@
         <v>1</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2456,9 +2753,12 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
@@ -2474,13 +2774,16 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2497,6 +2800,9 @@
         <v>0</v>
       </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
@@ -2515,10 +2821,13 @@
         <v>0</v>
       </c>
       <c r="P51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2537,6 +2846,9 @@
       <c r="G52">
         <v>0</v>
       </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
       <c r="J52" t="s">
         <v>53</v>
       </c>
@@ -2553,10 +2865,13 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2564,15 +2879,18 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
@@ -2582,19 +2900,22 @@
         <v>1</v>
       </c>
       <c r="M53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2613,6 +2934,9 @@
       <c r="G54">
         <v>0</v>
       </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
       <c r="J54" t="s">
         <v>55</v>
       </c>
@@ -2631,8 +2955,11 @@
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2640,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2649,6 +2976,9 @@
         <v>0</v>
       </c>
       <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
@@ -2658,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -2667,10 +2997,13 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2689,6 +3022,9 @@
       <c r="G56">
         <v>0</v>
       </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
       <c r="J56" t="s">
         <v>57</v>
       </c>
@@ -2707,8 +3043,11 @@
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2716,15 +3055,18 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
@@ -2734,19 +3076,22 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2765,6 +3110,9 @@
       <c r="G58">
         <v>0</v>
       </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
       <c r="J58" t="s">
         <v>59</v>
       </c>
@@ -2783,8 +3131,11 @@
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2803,6 +3154,9 @@
       <c r="G59">
         <v>0</v>
       </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
       <c r="J59" t="s">
         <v>60</v>
       </c>
@@ -2813,16 +3167,19 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2839,6 +3196,9 @@
         <v>0</v>
       </c>
       <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
@@ -2857,10 +3217,13 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2868,15 +3231,18 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
@@ -2886,10 +3252,10 @@
         <v>1</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -2897,8 +3263,11 @@
       <c r="P61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2917,6 +3286,9 @@
       <c r="G62">
         <v>0</v>
       </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
       <c r="J62" t="s">
         <v>63</v>
       </c>
@@ -2927,16 +3299,19 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2947,12 +3322,15 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
@@ -2965,16 +3343,19 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2993,6 +3374,9 @@
       <c r="G64">
         <v>0</v>
       </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
       <c r="J64" t="s">
         <v>65</v>
       </c>
@@ -3003,16 +3387,19 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -3031,6 +3418,9 @@
       <c r="G65">
         <v>0</v>
       </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
       <c r="J65" t="s">
         <v>66</v>
       </c>
@@ -3041,42 +3431,45 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C66">
         <f>SUM(C2:C65)</f>
         <v>24</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:P66" si="0">SUM(D2:D65)</f>
+        <f>SUM(D2:D65)</f>
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <f>SUM(E2:E65)</f>
         <v>16</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
+      <c r="F66">
+        <f>SUM(F2:F65)</f>
         <v>26</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
+      <c r="G66">
+        <f>SUM(G2:G65)</f>
         <v>19</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
+      <c r="H66">
+        <f>SUM(H2:H65)</f>
         <v>41</v>
       </c>
-      <c r="H66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="I66">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D66:P66" si="0">SUM(I2:I65)</f>
         <v>0</v>
       </c>
       <c r="J66">
@@ -3093,18 +3486,22 @@
       </c>
       <c r="M66">
         <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="N66">
+        <f>SUM(N2:N65)</f>
         <v>18</v>
       </c>
-      <c r="N66">
-        <f t="shared" si="0"/>
+      <c r="O66">
+        <f>SUM(O2:O65)</f>
         <v>62</v>
       </c>
-      <c r="O66">
-        <f t="shared" si="0"/>
+      <c r="P66">
+        <f>SUM(P2:P65)</f>
         <v>21</v>
       </c>
-      <c r="P66">
-        <f t="shared" si="0"/>
+      <c r="Q66">
+        <f>SUM(Q2:Q65)</f>
         <v>87</v>
       </c>
     </row>
@@ -3115,15 +3512,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9306FF-BA7F-4500-A753-4CE780206FBE}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66:P66"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66:M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -3131,15 +3528,18 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
       <c r="J1" t="s">
@@ -3149,19 +3549,22 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
       <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3581,9 @@
         <v>0</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
@@ -3190,16 +3596,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3216,6 +3625,9 @@
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
@@ -3228,16 +3640,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3254,6 +3669,9 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
@@ -3272,10 +3690,13 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3292,6 +3713,9 @@
         <v>0</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
@@ -3310,10 +3734,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3332,6 +3759,9 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
@@ -3350,8 +3780,11 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3359,15 +3792,18 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
@@ -3377,19 +3813,22 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>3</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3400,12 +3839,15 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
       <c r="J8" t="s">
@@ -3418,16 +3860,19 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3446,6 +3891,9 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="J9" t="s">
         <v>10</v>
       </c>
@@ -3456,16 +3904,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3484,6 +3935,9 @@
       <c r="G10">
         <v>0</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="J10" t="s">
         <v>11</v>
       </c>
@@ -3494,16 +3948,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3522,6 +3979,9 @@
       <c r="G11">
         <v>0</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
@@ -3532,16 +3992,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3552,12 +4015,15 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>3</v>
       </c>
       <c r="J12" t="s">
@@ -3570,16 +4036,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3598,6 +4067,9 @@
       <c r="G13">
         <v>0</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="J13" t="s">
         <v>14</v>
       </c>
@@ -3608,16 +4080,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3636,6 +4111,9 @@
       <c r="G14">
         <v>0</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="J14" t="s">
         <v>15</v>
       </c>
@@ -3654,8 +4132,11 @@
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3674,6 +4155,9 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="J15" t="s">
         <v>16</v>
       </c>
@@ -3684,16 +4168,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3712,6 +4199,9 @@
       <c r="G16">
         <v>0</v>
       </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="J16" t="s">
         <v>17</v>
       </c>
@@ -3722,16 +4212,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3739,15 +4232,18 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
@@ -3757,19 +4253,22 @@
         <v>0</v>
       </c>
       <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>3</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3777,15 +4276,18 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
@@ -3795,19 +4297,22 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3826,6 +4331,9 @@
       <c r="G19">
         <v>0</v>
       </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="J19" t="s">
         <v>20</v>
       </c>
@@ -3844,8 +4352,11 @@
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -3864,6 +4375,9 @@
       <c r="G20">
         <v>0</v>
       </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="J20" t="s">
         <v>21</v>
       </c>
@@ -3882,8 +4396,11 @@
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3894,12 +4411,15 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
@@ -3912,16 +4432,19 @@
         <v>1</v>
       </c>
       <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
         <v>3</v>
       </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
       <c r="P21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3929,15 +4452,18 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>4</v>
       </c>
       <c r="J22" t="s">
@@ -3947,19 +4473,22 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>3</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
       <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3970,12 +4499,15 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
@@ -3988,16 +4520,19 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4016,6 +4551,9 @@
       <c r="G24">
         <v>0</v>
       </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
       <c r="J24" t="s">
         <v>25</v>
       </c>
@@ -4034,8 +4572,11 @@
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -4046,12 +4587,15 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
@@ -4064,16 +4608,19 @@
         <v>0</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>4</v>
       </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
       <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -4092,6 +4639,9 @@
       <c r="G26">
         <v>0</v>
       </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
       <c r="J26" t="s">
         <v>27</v>
       </c>
@@ -4110,8 +4660,11 @@
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -4125,9 +4678,12 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
@@ -4140,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -4148,8 +4704,11 @@
       <c r="P27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -4168,6 +4727,9 @@
       <c r="G28">
         <v>0</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
       <c r="J28" t="s">
         <v>29</v>
       </c>
@@ -4186,8 +4748,11 @@
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -4195,15 +4760,18 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
@@ -4213,19 +4781,22 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -4244,6 +4815,9 @@
       <c r="G30">
         <v>0</v>
       </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
       <c r="J30" t="s">
         <v>31</v>
       </c>
@@ -4254,16 +4828,19 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -4271,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4280,6 +4857,9 @@
         <v>0</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
@@ -4289,19 +4869,22 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -4309,15 +4892,18 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
@@ -4327,19 +4913,22 @@
         <v>2</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
         <v>3</v>
       </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
       <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -4347,15 +4936,18 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
@@ -4365,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -4374,10 +4966,13 @@
         <v>1</v>
       </c>
       <c r="P33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -4396,6 +4991,9 @@
       <c r="G34">
         <v>0</v>
       </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
       <c r="J34" t="s">
         <v>35</v>
       </c>
@@ -4414,8 +5012,11 @@
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -4434,6 +5035,9 @@
       <c r="G35">
         <v>0</v>
       </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
       <c r="J35" t="s">
         <v>36</v>
       </c>
@@ -4452,8 +5056,11 @@
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -4470,6 +5077,9 @@
         <v>0</v>
       </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>2</v>
       </c>
       <c r="J36" t="s">
@@ -4479,19 +5089,22 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -4510,6 +5123,9 @@
       <c r="G37">
         <v>1</v>
       </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
       <c r="J37" t="s">
         <v>38</v>
       </c>
@@ -4520,16 +5136,19 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -4537,15 +5156,18 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
@@ -4555,19 +5177,22 @@
         <v>1</v>
       </c>
       <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
         <v>3</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>4</v>
       </c>
-      <c r="O38">
-        <v>2</v>
-      </c>
       <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -4584,6 +5209,9 @@
         <v>0</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
@@ -4596,16 +5224,19 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -4619,9 +5250,12 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
@@ -4637,13 +5271,16 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -4651,15 +5288,18 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
@@ -4669,19 +5309,22 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>1</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -4692,12 +5335,15 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>2</v>
       </c>
       <c r="J42" t="s">
@@ -4710,16 +5356,19 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -4727,15 +5376,18 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
@@ -4745,19 +5397,22 @@
         <v>1</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>1</v>
       </c>
       <c r="P43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -4771,9 +5426,12 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
@@ -4786,16 +5444,19 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -4812,6 +5473,9 @@
         <v>0</v>
       </c>
       <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
@@ -4830,10 +5494,13 @@
         <v>0</v>
       </c>
       <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -4852,6 +5519,9 @@
       <c r="G46">
         <v>0</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
       <c r="J46" t="s">
         <v>47</v>
       </c>
@@ -4870,8 +5540,11 @@
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -4888,6 +5561,9 @@
         <v>0</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
@@ -4906,10 +5582,13 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -4928,6 +5607,9 @@
       <c r="G48">
         <v>0</v>
       </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
       <c r="J48" t="s">
         <v>49</v>
       </c>
@@ -4946,8 +5628,11 @@
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -4955,15 +5640,18 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
@@ -4973,19 +5661,22 @@
         <v>2</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49">
         <v>1</v>
       </c>
       <c r="O49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -4999,9 +5690,12 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
@@ -5017,13 +5711,16 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -5040,6 +5737,9 @@
         <v>0</v>
       </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
@@ -5058,10 +5758,13 @@
         <v>0</v>
       </c>
       <c r="P51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -5080,6 +5783,9 @@
       <c r="G52">
         <v>0</v>
       </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
       <c r="J52" t="s">
         <v>53</v>
       </c>
@@ -5096,10 +5802,13 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -5107,15 +5816,18 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
@@ -5134,10 +5846,13 @@
         <v>1</v>
       </c>
       <c r="P53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -5156,6 +5871,9 @@
       <c r="G54">
         <v>0</v>
       </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
       <c r="J54" t="s">
         <v>55</v>
       </c>
@@ -5174,8 +5892,11 @@
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -5183,15 +5904,18 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
@@ -5201,19 +5925,22 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -5232,6 +5959,9 @@
       <c r="G56">
         <v>0</v>
       </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
       <c r="J56" t="s">
         <v>57</v>
       </c>
@@ -5250,8 +5980,11 @@
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -5259,15 +5992,18 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
@@ -5277,10 +6013,10 @@
         <v>1</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -5288,8 +6024,11 @@
       <c r="P57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -5308,6 +6047,9 @@
       <c r="G58">
         <v>0</v>
       </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
       <c r="J58" t="s">
         <v>59</v>
       </c>
@@ -5326,8 +6068,11 @@
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -5338,12 +6083,15 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
@@ -5356,16 +6104,19 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -5376,12 +6127,15 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
         <v>4</v>
       </c>
       <c r="J60" t="s">
@@ -5394,16 +6148,19 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -5422,6 +6179,9 @@
       <c r="G61">
         <v>1</v>
       </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
       <c r="J61" t="s">
         <v>62</v>
       </c>
@@ -5440,8 +6200,11 @@
       <c r="P61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -5460,6 +6223,9 @@
       <c r="G62">
         <v>0</v>
       </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
       <c r="J62" t="s">
         <v>63</v>
       </c>
@@ -5470,16 +6236,19 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -5498,6 +6267,9 @@
       <c r="G63">
         <v>0</v>
       </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
       <c r="J63" t="s">
         <v>64</v>
       </c>
@@ -5516,8 +6288,11 @@
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -5528,12 +6303,15 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
@@ -5546,16 +6324,19 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -5574,6 +6355,9 @@
       <c r="G65">
         <v>0</v>
       </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
       <c r="J65" t="s">
         <v>66</v>
       </c>
@@ -5584,42 +6368,45 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C66">
         <f>SUM(C2:C65)</f>
         <v>24</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:P66" si="0">SUM(D2:D65)</f>
+        <f>SUM(D2:D65)</f>
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <f>SUM(E2:E65)</f>
         <v>17</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
+      <c r="F66">
+        <f>SUM(F2:F65)</f>
         <v>25</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
+      <c r="G66">
+        <f>SUM(G2:G65)</f>
         <v>23</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
+      <c r="H66">
+        <f>SUM(H2:H65)</f>
         <v>46</v>
       </c>
-      <c r="H66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="I66">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D66:P66" si="0">SUM(I2:I65)</f>
         <v>0</v>
       </c>
       <c r="J66">
@@ -5636,18 +6423,22 @@
       </c>
       <c r="M66">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N66">
+        <f>SUM(N2:N65)</f>
         <v>20</v>
       </c>
-      <c r="N66">
-        <f t="shared" si="0"/>
+      <c r="O66">
+        <f>SUM(O2:O65)</f>
         <v>64</v>
       </c>
-      <c r="O66">
-        <f t="shared" si="0"/>
+      <c r="P66">
+        <f>SUM(P2:P65)</f>
         <v>24</v>
       </c>
-      <c r="P66">
-        <f t="shared" si="0"/>
+      <c r="Q66">
+        <f>SUM(Q2:Q65)</f>
         <v>92</v>
       </c>
     </row>
@@ -5658,15 +6449,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F1D62F-B3FD-49B6-BE6F-E27D8A4C03AE}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66:P66"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66:M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -5674,15 +6465,18 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
       <c r="J1" t="s">
@@ -5692,19 +6486,22 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
       <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5712,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5721,6 +6518,9 @@
         <v>0</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
@@ -5730,19 +6530,22 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5759,6 +6562,9 @@
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
@@ -5771,16 +6577,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5799,6 +6608,9 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
         <v>5</v>
       </c>
@@ -5809,16 +6621,19 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5835,6 +6650,9 @@
         <v>0</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
@@ -5853,10 +6671,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5875,6 +6696,9 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
@@ -5893,8 +6717,11 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5908,9 +6735,12 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
@@ -5923,16 +6753,19 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5940,15 +6773,18 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
       <c r="J8" t="s">
@@ -5958,19 +6794,22 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5989,6 +6828,9 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="J9" t="s">
         <v>10</v>
       </c>
@@ -5999,16 +6841,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6027,6 +6872,9 @@
       <c r="G10">
         <v>0</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="J10" t="s">
         <v>11</v>
       </c>
@@ -6037,16 +6885,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6065,6 +6916,9 @@
       <c r="G11">
         <v>0</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
@@ -6075,16 +6929,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -6095,12 +6952,15 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
@@ -6113,16 +6973,19 @@
         <v>0</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>4</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -6141,6 +7004,9 @@
       <c r="G13">
         <v>0</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="J13" t="s">
         <v>14</v>
       </c>
@@ -6151,16 +7017,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -6179,6 +7048,9 @@
       <c r="G14">
         <v>0</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="J14" t="s">
         <v>15</v>
       </c>
@@ -6197,8 +7069,11 @@
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -6217,6 +7092,9 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="J15" t="s">
         <v>16</v>
       </c>
@@ -6227,16 +7105,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -6255,6 +7136,9 @@
       <c r="G16">
         <v>0</v>
       </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="J16" t="s">
         <v>17</v>
       </c>
@@ -6265,16 +7149,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -6282,15 +7169,18 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
@@ -6300,19 +7190,22 @@
         <v>0</v>
       </c>
       <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>3</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -6320,15 +7213,18 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
@@ -6338,19 +7234,22 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -6369,6 +7268,9 @@
       <c r="G19">
         <v>0</v>
       </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="J19" t="s">
         <v>20</v>
       </c>
@@ -6387,8 +7289,11 @@
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -6407,6 +7312,9 @@
       <c r="G20">
         <v>0</v>
       </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="J20" t="s">
         <v>21</v>
       </c>
@@ -6425,8 +7333,11 @@
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -6437,12 +7348,15 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
@@ -6455,16 +7369,19 @@
         <v>1</v>
       </c>
       <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
         <v>3</v>
       </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
       <c r="P21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -6475,12 +7392,15 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>3</v>
       </c>
       <c r="J22" t="s">
@@ -6493,16 +7413,19 @@
         <v>1</v>
       </c>
       <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>3</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
       <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -6513,12 +7436,15 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
@@ -6531,16 +7457,19 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -6559,6 +7488,9 @@
       <c r="G24">
         <v>0</v>
       </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
       <c r="J24" t="s">
         <v>25</v>
       </c>
@@ -6577,8 +7509,11 @@
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -6589,12 +7524,15 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
@@ -6607,16 +7545,19 @@
         <v>0</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>3</v>
       </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
       <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -6635,6 +7576,9 @@
       <c r="G26">
         <v>0</v>
       </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
       <c r="J26" t="s">
         <v>27</v>
       </c>
@@ -6653,8 +7597,11 @@
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -6673,6 +7620,9 @@
       <c r="G27">
         <v>0</v>
       </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
       <c r="J27" t="s">
         <v>28</v>
       </c>
@@ -6683,16 +7633,19 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -6711,6 +7664,9 @@
       <c r="G28">
         <v>0</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
       <c r="J28" t="s">
         <v>29</v>
       </c>
@@ -6729,8 +7685,11 @@
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -6738,15 +7697,18 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
@@ -6756,19 +7718,22 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -6787,6 +7752,9 @@
       <c r="G30">
         <v>0</v>
       </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
       <c r="J30" t="s">
         <v>31</v>
       </c>
@@ -6797,16 +7765,19 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -6814,15 +7785,18 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
@@ -6832,19 +7806,22 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -6855,12 +7832,15 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>2</v>
       </c>
       <c r="J32" t="s">
@@ -6873,16 +7853,19 @@
         <v>0</v>
       </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
         <v>3</v>
       </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
       <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -6893,12 +7876,15 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
@@ -6914,13 +7900,16 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -6939,6 +7928,9 @@
       <c r="G34">
         <v>0</v>
       </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
       <c r="J34" t="s">
         <v>35</v>
       </c>
@@ -6957,8 +7949,11 @@
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -6977,6 +7972,9 @@
       <c r="G35">
         <v>0</v>
       </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
       <c r="J35" t="s">
         <v>36</v>
       </c>
@@ -6995,8 +7993,11 @@
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -7004,15 +8005,18 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>3</v>
       </c>
       <c r="J36" t="s">
@@ -7022,19 +8026,22 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -7053,6 +8060,9 @@
       <c r="G37">
         <v>1</v>
       </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
       <c r="J37" t="s">
         <v>38</v>
       </c>
@@ -7063,16 +8073,19 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -7083,12 +8096,15 @@
         <v>2</v>
       </c>
       <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
         <v>3</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>4</v>
       </c>
       <c r="J38" t="s">
@@ -7101,16 +8117,19 @@
         <v>2</v>
       </c>
       <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
         <v>4</v>
       </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
       <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -7121,12 +8140,15 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
@@ -7139,16 +8161,19 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -7162,9 +8187,12 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
@@ -7180,13 +8208,16 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -7194,15 +8225,18 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
@@ -7212,19 +8246,22 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>1</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -7232,15 +8269,18 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
@@ -7250,19 +8290,22 @@
         <v>3</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -7279,6 +8322,9 @@
         <v>0</v>
       </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
@@ -7291,16 +8337,19 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -7308,15 +8357,18 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
@@ -7326,19 +8378,22 @@
         <v>1</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
         <v>3</v>
       </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
       <c r="P44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -7355,6 +8410,9 @@
         <v>0</v>
       </c>
       <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
@@ -7367,16 +8425,19 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -7395,6 +8456,9 @@
       <c r="G46">
         <v>0</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
       <c r="J46" t="s">
         <v>47</v>
       </c>
@@ -7413,8 +8477,11 @@
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -7431,6 +8498,9 @@
         <v>0</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
@@ -7449,10 +8519,13 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -7471,6 +8544,9 @@
       <c r="G48">
         <v>0</v>
       </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
       <c r="J48" t="s">
         <v>49</v>
       </c>
@@ -7487,10 +8563,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -7504,9 +8583,12 @@
         <v>1</v>
       </c>
       <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>3</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
@@ -7522,13 +8604,16 @@
         <v>1</v>
       </c>
       <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
         <v>3</v>
       </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -7542,9 +8627,12 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
@@ -7560,13 +8648,16 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -7577,12 +8668,15 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
@@ -7595,16 +8689,19 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -7623,6 +8720,9 @@
       <c r="G52">
         <v>0</v>
       </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
       <c r="J52" t="s">
         <v>53</v>
       </c>
@@ -7639,10 +8739,13 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -7650,15 +8753,18 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
@@ -7677,10 +8783,13 @@
         <v>1</v>
       </c>
       <c r="P53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -7699,6 +8808,9 @@
       <c r="G54">
         <v>0</v>
       </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
       <c r="J54" t="s">
         <v>55</v>
       </c>
@@ -7717,8 +8829,11 @@
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -7726,15 +8841,18 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
@@ -7744,10 +8862,10 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -7755,8 +8873,11 @@
       <c r="P55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -7775,6 +8896,9 @@
       <c r="G56">
         <v>0</v>
       </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
       <c r="J56" t="s">
         <v>57</v>
       </c>
@@ -7793,8 +8917,11 @@
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -7802,15 +8929,18 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
@@ -7820,19 +8950,22 @@
         <v>1</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <v>1</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -7851,6 +8984,9 @@
       <c r="G58">
         <v>0</v>
       </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
       <c r="J58" t="s">
         <v>59</v>
       </c>
@@ -7869,8 +9005,11 @@
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -7887,6 +9026,9 @@
         <v>0</v>
       </c>
       <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
@@ -7899,16 +9041,19 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -7919,12 +9064,15 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>4</v>
       </c>
       <c r="J60" t="s">
@@ -7937,16 +9085,19 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -7965,6 +9116,9 @@
       <c r="G61">
         <v>1</v>
       </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
       <c r="J61" t="s">
         <v>62</v>
       </c>
@@ -7981,10 +9135,13 @@
         <v>1</v>
       </c>
       <c r="P61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -8003,6 +9160,9 @@
       <c r="G62">
         <v>0</v>
       </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
       <c r="J62" t="s">
         <v>63</v>
       </c>
@@ -8013,16 +9173,19 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -8041,6 +9204,9 @@
       <c r="G63">
         <v>0</v>
       </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
       <c r="J63" t="s">
         <v>64</v>
       </c>
@@ -8059,8 +9225,11 @@
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -8079,6 +9248,9 @@
       <c r="G64">
         <v>0</v>
       </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
       <c r="J64" t="s">
         <v>65</v>
       </c>
@@ -8086,19 +9258,22 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -8112,9 +9287,12 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
@@ -8127,42 +9305,45 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C66">
         <f>SUM(C2:C65)</f>
         <v>24</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:P66" si="0">SUM(D2:D65)</f>
+        <f>SUM(D2:D65)</f>
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <f>SUM(E2:E65)</f>
         <v>19</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
+      <c r="F66">
+        <f>SUM(F2:F65)</f>
         <v>27</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
+      <c r="G66">
+        <f>SUM(G2:G65)</f>
         <v>17</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
+      <c r="H66">
+        <f>SUM(H2:H65)</f>
         <v>43</v>
       </c>
-      <c r="H66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="I66">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D66:P66" si="0">SUM(I2:I65)</f>
         <v>0</v>
       </c>
       <c r="J66">
@@ -8179,18 +9360,22 @@
       </c>
       <c r="M66">
         <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="N66">
+        <f>SUM(N2:N65)</f>
         <v>21</v>
       </c>
-      <c r="N66">
-        <f t="shared" si="0"/>
+      <c r="O66">
+        <f>SUM(O2:O65)</f>
         <v>63</v>
       </c>
-      <c r="O66">
-        <f t="shared" si="0"/>
+      <c r="P66">
+        <f>SUM(P2:P65)</f>
         <v>18</v>
       </c>
-      <c r="P66">
-        <f t="shared" si="0"/>
+      <c r="Q66">
+        <f>SUM(Q2:Q65)</f>
         <v>90</v>
       </c>
     </row>
